--- a/excel/import_barang.xlsx
+++ b/excel/import_barang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\lana\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{237C2004-E09F-4A9E-9AC5-187369315F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916ACD68-1E0D-4371-B326-71208CF16DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="HTML_tables" localSheetId="0">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -5937,7 +5936,7 @@
   <dimension ref="A1:F920"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
